--- a/Register.xlsx
+++ b/Register.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b909a7fd715fee6c/桌面/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{463BB81F-1753-4116-844E-F0E119A05556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{463BB81F-1753-4116-844E-F0E119A05556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3E3183B-79AD-4AC2-8652-D9ABFEEC2670}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2BBC876B-9837-4265-AAC2-3D498A8D0157}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{2BBC876B-9837-4265-AAC2-3D498A8D0157}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,13 +25,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Username</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a@a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b@b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c@c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z@z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elisadiskg5@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -39,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +90,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -73,17 +122,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -396,13 +452,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1D5FDC-1C91-4CA0-86D5-F3FD1701C2FC}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -412,8 +471,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{13449506-C387-464B-8B5B-5F891EB5F5C4}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{AC0191FE-36AA-4C93-AEF7-A69D4123DEAB}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{A1069D43-517F-4F1B-9551-9D413193A311}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{CCEC108F-057F-4E9A-989D-872F81E9AE54}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{DB05D827-5A93-4CEC-8268-769787480F6E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>